--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,108 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>warning</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -142,54 +151,72 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -199,85 +226,109 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -635,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,16 +926,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.68</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,16 +1276,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,16 +1326,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6333333333333333</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5932203389830508</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5608465608465608</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C18">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="D18">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7875</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5490196078431373</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5368217054263565</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C20">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7578125</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4697986577181208</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4516129032258064</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1722,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4324324324324325</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L24">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4181818181818182</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.6067796610169491</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4133333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3846153846153846</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,37 +2005,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>21</v>
       </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>35</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.5857740585774058</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L28">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3454545454545455</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.5857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3095238095238095</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C30">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>0.58</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.574468085106383</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L31">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2727272727272727</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.5730337078651685</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,7 +2255,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2549019607843137</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -2222,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K34">
-        <v>0.5692307692307692</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2355,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1662198391420912</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>0.5098039215686274</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1033333333333333</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,31 +2423,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5748299319727891</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,37 +2455,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01898188093183779</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1137</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K37">
-        <v>0.4888888888888889</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,37 +2505,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01064516129032258</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3067</v>
+        <v>313</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>0.3835616438356164</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2496,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2504,37 +2555,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.009826860084230228</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2116</v>
+        <v>281</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2546,21 +2597,45 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.01579116983564293</v>
+      </c>
+      <c r="C40">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>0.08</v>
+      </c>
+      <c r="F40">
+        <v>0.92</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3054</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K40">
-        <v>0.1209677419354839</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2572,73 +2647,145 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>109</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01550387596899225</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1143</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K41">
-        <v>0.1192660550458716</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L41">
+        <v>47</v>
+      </c>
+      <c r="M41">
+        <v>47</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.01123595505617977</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>0.23</v>
+      </c>
+      <c r="F42">
+        <v>0.77</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2112</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>13</v>
       </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.07027027027027027</v>
-      </c>
-      <c r="L42">
-        <v>13</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>172</v>
-      </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.004427577482605946</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>0.74</v>
+      </c>
+      <c r="F43">
+        <v>0.26</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3148</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K43">
-        <v>0.0360576923076923</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2650,33 +2797,397 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>401</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0.01034158570980884</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>3158</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>24</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L48">
+        <v>28</v>
+      </c>
+      <c r="M48">
+        <v>28</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49">
+        <v>0.359375</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>23</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51">
+        <v>0.2982456140350877</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>17</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>0.95</v>
+      </c>
+      <c r="O53">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>15</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57">
+        <v>0.03365384615384615</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58">
+        <v>0.01223721368057734</v>
+      </c>
+      <c r="L58">
+        <v>39</v>
+      </c>
+      <c r="M58">
+        <v>53</v>
+      </c>
+      <c r="N58">
+        <v>0.74</v>
+      </c>
+      <c r="O58">
+        <v>0.26</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3148</v>
       </c>
     </row>
   </sheetData>
